--- a/bip1271_09_data.xlsx
+++ b/bip1271_09_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>X</t>
   </si>
@@ -2799,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:P36"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3311,7 @@
         <v>-5.656649482123</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>35.434335051787698</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>10.54343350517877</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>-25.945656649482132</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>-19.59456566494821</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>34.040543433505178</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>11.40405434335052</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>-31.859594565664949</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>6.8140405434335074</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>-5.3185959456566501</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>1.468140405434333</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3662,20 +3662,20 @@
       <c r="J27">
         <v>9.1468140405434326</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>46</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>47</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>48</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3706,23 +3706,23 @@
       <c r="J28">
         <v>-12.08531859594566</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>1.7806340000000001</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <v>0.54734760000000005</v>
       </c>
-      <c r="O28" s="2">
+      <c r="P28" s="2">
         <v>8.4957940000000001</v>
       </c>
-      <c r="P28" s="2">
+      <c r="Q28" s="2">
         <v>15.22409</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3753,23 +3753,23 @@
       <c r="J29">
         <v>-11.20853185959457</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <v>13.537411000000001</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <v>13.6922487</v>
       </c>
-      <c r="O29" s="2">
+      <c r="P29" s="2">
         <v>12.758718999999999</v>
       </c>
-      <c r="P29" s="2">
+      <c r="Q29" s="2">
         <v>15.892720000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3800,23 +3800,23 @@
       <c r="J30">
         <v>-0.1208531859594562</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>52</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>17.427333000000001</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>17.939190199999999</v>
       </c>
-      <c r="O30" s="2">
+      <c r="P30" s="2">
         <v>18.078852000000001</v>
       </c>
-      <c r="P30" s="2">
+      <c r="Q30" s="2">
         <v>21.77338</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3850,21 +3850,24 @@
       <c r="L31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4">
-        <f>(M30-N30)/N30</f>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4">
+        <f>(N30-O30)/O30</f>
         <v>-2.8532904456300259E-2</v>
       </c>
-      <c r="O31" s="4">
-        <f>(M30-O30)/O30</f>
+      <c r="P31" s="4">
+        <f>(N30-P30)/P30</f>
         <v>-3.6037631150473509E-2</v>
       </c>
-      <c r="P31" s="4">
-        <f>(M30-P30)/P30</f>
+      <c r="Q31" s="4">
+        <f>(N30-Q30)/Q30</f>
         <v>-0.19960369037788339</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3896,18 +3899,24 @@
         <v>-4.901208531859595</v>
       </c>
       <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4">
-        <f>(N30-O30)/O30</f>
+      <c r="M32" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="4">
+        <f>(O30-N30)/N30</f>
+        <v>2.9370942759858774E-2</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4">
+        <f>(O30-P30)/P30</f>
         <v>-7.7251475923362E-3</v>
       </c>
-      <c r="P32" s="4">
-        <f>(N30-P30)/P30</f>
+      <c r="Q32" s="4">
+        <f>(O30-Q30)/Q30</f>
         <v>-0.17609529618277001</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3939,15 +3948,24 @@
         <v>26.50987914681404</v>
       </c>
       <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4">
-        <f>(O30-P30)/P30</f>
+      <c r="M33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="4">
+        <f>(P30-N30)/N30</f>
+        <v>3.7384894177439565E-2</v>
+      </c>
+      <c r="O33" s="4">
+        <f>(P30-O30)/O30</f>
+        <v>7.7852901074655263E-3</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4">
+        <f>(P30-Q30)/Q30</f>
         <v>-0.16968095904264741</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3978,23 +3996,23 @@
       <c r="J34">
         <v>-25.349012085318599</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>54</v>
+      <c r="M34" t="s">
+        <v>49</v>
       </c>
       <c r="N34" s="4">
-        <f>(M29-N29)/N29</f>
-        <v>-1.1308420069816571E-2</v>
+        <f>(Q30-N30)/N30</f>
+        <v>0.24938107282393687</v>
       </c>
       <c r="O34" s="4">
-        <f>(M29-O29)/O29</f>
-        <v>6.1032145938789098E-2</v>
+        <f>(Q30-O30)/O30</f>
+        <v>0.21373260204354158</v>
       </c>
       <c r="P34" s="4">
-        <f>(M29-P29)/P29</f>
-        <v>-0.14820049683125355</v>
+        <f>(Q30-P30)/P30</f>
+        <v>0.20435633855512497</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -4025,17 +4043,26 @@
       <c r="J35">
         <v>-2.534901208531859</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" t="s">
+        <v>46</v>
+      </c>
       <c r="O35" s="4">
         <f>(N29-O29)/O29</f>
-        <v>7.3167980265103516E-2</v>
+        <v>-1.1308420069816571E-2</v>
       </c>
       <c r="P35" s="4">
         <f>(N29-P29)/P29</f>
-        <v>-0.13845781590564737</v>
+        <v>6.1032145938789098E-2</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>(N29-Q29)/Q29</f>
+        <v>-0.14820049683125355</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -4067,12 +4094,23 @@
         <v>40.746509879146807</v>
       </c>
       <c r="L36" s="3"/>
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" s="4">
+        <f>(O29-N29)/N29</f>
+        <v>1.1437763099605962E-2</v>
+      </c>
       <c r="P36" s="4">
         <f>(O29-P29)/P29</f>
-        <v>-0.19719727019666874</v>
+        <v>7.3167980265103516E-2</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>(O29-Q29)/Q29</f>
+        <v>-0.13845781590564737</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -4103,8 +4141,24 @@
       <c r="J37">
         <v>23.07465098791468</v>
       </c>
+      <c r="L37" s="3"/>
+      <c r="M37" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" s="4">
+        <f>(P29-N29)/N29</f>
+        <v>-5.7521486198505847E-2</v>
+      </c>
+      <c r="O37" s="4">
+        <f>(P29-O29)/O29</f>
+        <v>-6.8179429139349559E-2</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>(P29-Q29)/Q29</f>
+        <v>-0.19719727019666874</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>57.692529999999998</v>
       </c>
@@ -4117,8 +4171,24 @@
       <c r="F38">
         <v>8.9281190000000006</v>
       </c>
+      <c r="L38" s="3"/>
+      <c r="M38" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="4">
+        <f>(Q30-N30)/N30</f>
+        <v>0.24938107282393687</v>
+      </c>
+      <c r="O38" s="4">
+        <f>(Q30-O30)/O30</f>
+        <v>0.21373260204354158</v>
+      </c>
+      <c r="P38" s="4">
+        <f>(Q30-P30)/P30</f>
+        <v>0.20435633855512497</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>57.692529999999998</v>
       </c>
@@ -4132,7 +4202,7 @@
         <v>8.9281190000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>57.692529999999998</v>
       </c>
@@ -4146,7 +4216,7 @@
         <v>8.9281190000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>57.692529999999998</v>
       </c>
@@ -4163,7 +4233,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L35:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
